--- a/raw data/Stations.xlsx
+++ b/raw data/Stations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\web-projects\baltic-rails-leaflet\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4ED67A-2BD6-4D6A-9C8B-D39219FBDD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B193CF9-26C7-477D-A48F-D63CA1F05641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="2223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5389" uniqueCount="2363">
   <si>
     <t>Station ID</t>
   </si>
@@ -6705,6 +6705,426 @@
   </si>
   <si>
     <t>26.046255</t>
+  </si>
+  <si>
+    <t>Türi</t>
+  </si>
+  <si>
+    <t>Kirna</t>
+  </si>
+  <si>
+    <t>Paide</t>
+  </si>
+  <si>
+    <t>Mäo</t>
+  </si>
+  <si>
+    <t>Vodja</t>
+  </si>
+  <si>
+    <t>Esna</t>
+  </si>
+  <si>
+    <t>Järva-Jaani</t>
+  </si>
+  <si>
+    <t>Võhmuta</t>
+  </si>
+  <si>
+    <t>Vajangu</t>
+  </si>
+  <si>
+    <t>Tamsalu</t>
+  </si>
+  <si>
+    <t>58.804760</t>
+  </si>
+  <si>
+    <t>25.424001</t>
+  </si>
+  <si>
+    <t>58.851601</t>
+  </si>
+  <si>
+    <t>25.470354</t>
+  </si>
+  <si>
+    <t>58.884406</t>
+  </si>
+  <si>
+    <t>25.555528</t>
+  </si>
+  <si>
+    <t>58.918214</t>
+  </si>
+  <si>
+    <t>25.611380</t>
+  </si>
+  <si>
+    <t>58.938010</t>
+  </si>
+  <si>
+    <t>25.647029</t>
+  </si>
+  <si>
+    <t>Viisu</t>
+  </si>
+  <si>
+    <t>58.97191</t>
+  </si>
+  <si>
+    <t>25.776685</t>
+  </si>
+  <si>
+    <t>59.039923</t>
+  </si>
+  <si>
+    <t>25.885846</t>
+  </si>
+  <si>
+    <t>59.088558</t>
+  </si>
+  <si>
+    <t>25.958714</t>
+  </si>
+  <si>
+    <t>59.110532</t>
+  </si>
+  <si>
+    <t>26.016347</t>
+  </si>
+  <si>
+    <t>Narva</t>
+  </si>
+  <si>
+    <t>Energia</t>
+  </si>
+  <si>
+    <t>Soldina</t>
+  </si>
+  <si>
+    <t>Auvere</t>
+  </si>
+  <si>
+    <t>Part of Estonia powerplant</t>
+  </si>
+  <si>
+    <t>59.368694</t>
+  </si>
+  <si>
+    <t>28.199648</t>
+  </si>
+  <si>
+    <t>Ida-Viru maakond</t>
+  </si>
+  <si>
+    <t>59.372232</t>
+  </si>
+  <si>
+    <t>28.162739</t>
+  </si>
+  <si>
+    <t>59.368733</t>
+  </si>
+  <si>
+    <t>28.059194</t>
+  </si>
+  <si>
+    <t>59.276781</t>
+  </si>
+  <si>
+    <t>27.905718</t>
+  </si>
+  <si>
+    <t>59.363226</t>
+  </si>
+  <si>
+    <t>27.924839</t>
+  </si>
+  <si>
+    <t>Hiiemetsa</t>
+  </si>
+  <si>
+    <t>Sonda</t>
+  </si>
+  <si>
+    <t>59.349723</t>
+  </si>
+  <si>
+    <t>26.842596</t>
+  </si>
+  <si>
+    <t>59.304494</t>
+  </si>
+  <si>
+    <t>26.914234</t>
+  </si>
+  <si>
+    <t>Soonurme</t>
+  </si>
+  <si>
+    <t>Hirmuse</t>
+  </si>
+  <si>
+    <t>Sirtsi</t>
+  </si>
+  <si>
+    <t>59.281051</t>
+  </si>
+  <si>
+    <t>26.918124</t>
+  </si>
+  <si>
+    <t>Lümatu</t>
+  </si>
+  <si>
+    <t>59.254650</t>
+  </si>
+  <si>
+    <t>26.906762</t>
+  </si>
+  <si>
+    <t>Jõepere</t>
+  </si>
+  <si>
+    <t>59.211658</t>
+  </si>
+  <si>
+    <t>26.916572</t>
+  </si>
+  <si>
+    <t>Kaukvere</t>
+  </si>
+  <si>
+    <t>Tudu</t>
+  </si>
+  <si>
+    <t>59.182195</t>
+  </si>
+  <si>
+    <t>26.858394</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Suigu</t>
+  </si>
+  <si>
+    <t>59.141454</t>
+  </si>
+  <si>
+    <t>26.819291</t>
+  </si>
+  <si>
+    <t>Peressaare</t>
+  </si>
+  <si>
+    <t>59.107092</t>
+  </si>
+  <si>
+    <t>26.814719</t>
+  </si>
+  <si>
+    <t>Aadumäe</t>
+  </si>
+  <si>
+    <t>59.084429</t>
+  </si>
+  <si>
+    <t>26.812041</t>
+  </si>
+  <si>
+    <t>59.068454</t>
+  </si>
+  <si>
+    <t>26.810237</t>
+  </si>
+  <si>
+    <t>Paasvere</t>
+  </si>
+  <si>
+    <t>Lippoja</t>
+  </si>
+  <si>
+    <t>59.057900</t>
+  </si>
+  <si>
+    <t>26.808971</t>
+  </si>
+  <si>
+    <t>Punasoo</t>
+  </si>
+  <si>
+    <t>59.015808</t>
+  </si>
+  <si>
+    <t>26.822777</t>
+  </si>
+  <si>
+    <t>Paadenurme</t>
+  </si>
+  <si>
+    <t>Muru</t>
+  </si>
+  <si>
+    <t>Avinurme</t>
+  </si>
+  <si>
+    <t>58.985458</t>
+  </si>
+  <si>
+    <t>26.846536</t>
+  </si>
+  <si>
+    <t>From 2018, museum railway opened</t>
+  </si>
+  <si>
+    <t>Kõrve</t>
+  </si>
+  <si>
+    <t>58.944012</t>
+  </si>
+  <si>
+    <t>26.876756</t>
+  </si>
+  <si>
+    <t>Piilsi</t>
+  </si>
+  <si>
+    <t>58.917571</t>
+  </si>
+  <si>
+    <t>26.896459</t>
+  </si>
+  <si>
+    <t>Mustvee</t>
+  </si>
+  <si>
+    <t>58.849788</t>
+  </si>
+  <si>
+    <t>26.942369</t>
+  </si>
+  <si>
+    <t>Toila</t>
+  </si>
+  <si>
+    <t>Jõhvi</t>
+  </si>
+  <si>
+    <t>59.361503</t>
+  </si>
+  <si>
+    <t>27.466066</t>
+  </si>
+  <si>
+    <t>Sompa</t>
+  </si>
+  <si>
+    <t>59.357422</t>
+  </si>
+  <si>
+    <t>27.337772</t>
+  </si>
+  <si>
+    <t>Kohtla</t>
+  </si>
+  <si>
+    <t>Kohtla-Nõmme</t>
+  </si>
+  <si>
+    <t>59.360924</t>
+  </si>
+  <si>
+    <t>27.217319</t>
+  </si>
+  <si>
+    <t>Building demolished 2005</t>
+  </si>
+  <si>
+    <t>Building demolished early 2000s.</t>
+  </si>
+  <si>
+    <t>Küttejõu</t>
+  </si>
+  <si>
+    <t>Kiviõli</t>
+  </si>
+  <si>
+    <t>59.354981</t>
+  </si>
+  <si>
+    <t>27.002294</t>
+  </si>
+  <si>
+    <t>Vaeküla</t>
+  </si>
+  <si>
+    <t>59.345766</t>
+  </si>
+  <si>
+    <t>26.525583</t>
+  </si>
+  <si>
+    <t>Udriku</t>
+  </si>
+  <si>
+    <t>59.317915</t>
+  </si>
+  <si>
+    <t>26.075100</t>
+  </si>
+  <si>
+    <t>Patika</t>
+  </si>
+  <si>
+    <t>59.253611</t>
+  </si>
+  <si>
+    <t>25.772972</t>
+  </si>
+  <si>
+    <t>Läpi</t>
+  </si>
+  <si>
+    <t>Rakvere</t>
+  </si>
+  <si>
+    <t>Ubja</t>
+  </si>
+  <si>
+    <t>Aru</t>
+  </si>
+  <si>
+    <t>Kunda</t>
+  </si>
+  <si>
+    <t>59.357533</t>
+  </si>
+  <si>
+    <t>26.364805</t>
+  </si>
+  <si>
+    <t>59.417603</t>
+  </si>
+  <si>
+    <t>26.437638</t>
+  </si>
+  <si>
+    <t>59.469279</t>
+  </si>
+  <si>
+    <t>26.491096</t>
+  </si>
+  <si>
+    <t>59.493330</t>
+  </si>
+  <si>
+    <t>26.524599</t>
+  </si>
+  <si>
+    <t>Freight operations only</t>
   </si>
 </sst>
 </file>
@@ -6722,12 +7142,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -6742,6 +7164,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7024,10 +7447,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S613"/>
+  <dimension ref="A1:S659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="H597" sqref="H597"/>
+    <sheetView tabSelected="1" topLeftCell="A624" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J648" sqref="J648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30671,7 +31094,7 @@
         <v>1968</v>
       </c>
       <c r="L576" s="9" t="str">
-        <f t="shared" ref="L576:L613" si="3">F576&amp;", "&amp;G576</f>
+        <f t="shared" ref="L576:L645" si="3">F576&amp;", "&amp;G576</f>
         <v>58.570917, 23.522348</v>
       </c>
     </row>
@@ -32045,6 +32468,1555 @@
         <f t="shared" si="3"/>
         <v>59.202995, 26.046255</v>
       </c>
+    </row>
+    <row r="614" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>614</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D614" s="10" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E614" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F614" s="11" t="s">
+        <v>2233</v>
+      </c>
+      <c r="G614" s="7" t="s">
+        <v>2234</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J614" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L614" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>58.804760, 25.424001</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>615</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D615" s="10" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E615" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F615" s="11" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G615" s="11" t="s">
+        <v>2236</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J615">
+        <v>1972</v>
+      </c>
+      <c r="L615" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>58.851601, 25.470354</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>616</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="D616" s="10" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E616" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F616" s="11" t="s">
+        <v>2237</v>
+      </c>
+      <c r="G616" s="7" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J616">
+        <v>1972</v>
+      </c>
+      <c r="K616" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="L616" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>58.884406, 25.555528</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>617</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D617" s="10" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E617" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F617" s="11" t="s">
+        <v>2239</v>
+      </c>
+      <c r="G617" s="11" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J617">
+        <v>1972</v>
+      </c>
+      <c r="L617" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>58.918214, 25.611380</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>618</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D618" s="10" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E618" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F618" s="11" t="s">
+        <v>2241</v>
+      </c>
+      <c r="G618" s="11" t="s">
+        <v>2242</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J618">
+        <v>1972</v>
+      </c>
+      <c r="L618" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>58.938010, 25.647029</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>619</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D619" s="10" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E619" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F619" s="11" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G619" s="11" t="s">
+        <v>2245</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J619">
+        <v>1972</v>
+      </c>
+      <c r="L619" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>58.97191, 25.776685</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>620</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D620" s="10" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E620" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F620" s="11" t="s">
+        <v>2246</v>
+      </c>
+      <c r="G620" s="11" t="s">
+        <v>2247</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J620">
+        <v>1972</v>
+      </c>
+      <c r="L620" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>59.039923, 25.885846</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>621</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D621" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E621" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F621" s="11" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G621" s="11" t="s">
+        <v>2249</v>
+      </c>
+      <c r="H621" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J621">
+        <v>1972</v>
+      </c>
+      <c r="L621" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>59.088558, 25.958714</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>622</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D622" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E622" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F622" s="11" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G622" s="7" t="s">
+        <v>2251</v>
+      </c>
+      <c r="H622" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I622" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J622">
+        <v>1972</v>
+      </c>
+      <c r="L622" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>59.110532, 26.016347</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>623</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D623" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E623" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F623" s="7">
+        <v>59.160122999999999</v>
+      </c>
+      <c r="G623" s="7">
+        <v>26.112007999999999</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J623" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L623" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>59.160123, 26.112008</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>624</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D624" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E624" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F624" s="11" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G624" s="11" t="s">
+        <v>2258</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J624" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L624" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>59.368694, 28.199648</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>625</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D625" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E625" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F625" s="11" t="s">
+        <v>2260</v>
+      </c>
+      <c r="G625" s="11" t="s">
+        <v>2261</v>
+      </c>
+      <c r="H625" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I625" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J625" s="1">
+        <v>2001</v>
+      </c>
+      <c r="L625" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>59.372232, 28.162739</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>626</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D626" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E626" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F626" s="11" t="s">
+        <v>2262</v>
+      </c>
+      <c r="G626" s="7" t="s">
+        <v>2263</v>
+      </c>
+      <c r="H626" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="I626" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J626" s="1">
+        <v>2012</v>
+      </c>
+      <c r="L626" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>59.368733, 28.059194</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>627</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D627" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E627" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F627" s="11" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G627" s="11" t="s">
+        <v>2267</v>
+      </c>
+      <c r="H627" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J627" s="1">
+        <v>2013</v>
+      </c>
+      <c r="L627" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>59.363226, 27.924839</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>628</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D628" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E628" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F628" s="11" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G628" s="11" t="s">
+        <v>2265</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J628" s="1">
+        <v>2001</v>
+      </c>
+      <c r="K628" s="10" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L628" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>59.276781, 27.905718</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>629</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D629" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E629" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F629" s="11" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G629" s="11" t="s">
+        <v>2271</v>
+      </c>
+      <c r="H629" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I629" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J629" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L629" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.349723, 26.842596</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>630</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D630" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E630" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F630" s="11" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G630" s="11" t="s">
+        <v>2273</v>
+      </c>
+      <c r="H630" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J630" s="1">
+        <v>1972</v>
+      </c>
+      <c r="L630" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.304494, 26.914234</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>631</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D631" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E631" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F631" s="11" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G631" s="11" t="s">
+        <v>2278</v>
+      </c>
+      <c r="H631" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I631" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J631" s="1">
+        <v>1972</v>
+      </c>
+      <c r="L631" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.281051, 26.918124</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>632</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D632" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E632" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F632" s="11" t="s">
+        <v>2280</v>
+      </c>
+      <c r="G632" s="11" t="s">
+        <v>2281</v>
+      </c>
+      <c r="H632" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I632" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J632" s="1">
+        <v>1972</v>
+      </c>
+      <c r="L632" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.254650, 26.906762</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>633</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D633" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E633" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F633" s="11" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G633" s="11" t="s">
+        <v>2284</v>
+      </c>
+      <c r="H633" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J633" s="1">
+        <v>1972</v>
+      </c>
+      <c r="L633" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.211658, 26.916572</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>634</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D634" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E634" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F634" s="11" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G634" s="11" t="s">
+        <v>2288</v>
+      </c>
+      <c r="H634" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J634" s="1">
+        <v>1972</v>
+      </c>
+      <c r="K634" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L634" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.182195, 26.858394</v>
+      </c>
+    </row>
+    <row r="635" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>635</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D635" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E635" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F635" s="11" t="s">
+        <v>2291</v>
+      </c>
+      <c r="G635" s="11" t="s">
+        <v>2292</v>
+      </c>
+      <c r="H635" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I635" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J635" s="1">
+        <v>1972</v>
+      </c>
+      <c r="L635" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.141454, 26.819291</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>636</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C636" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D636" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E636" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F636" s="11" t="s">
+        <v>2294</v>
+      </c>
+      <c r="G636" s="11" t="s">
+        <v>2295</v>
+      </c>
+      <c r="H636" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I636" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J636" s="1">
+        <v>1972</v>
+      </c>
+      <c r="L636" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.107092, 26.814719</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>637</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C637" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D637" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E637" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F637" s="11" t="s">
+        <v>2297</v>
+      </c>
+      <c r="G637" s="11" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H637" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I637" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J637" s="1">
+        <v>1972</v>
+      </c>
+      <c r="L637" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.084429, 26.812041</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>638</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D638" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E638" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F638" s="11" t="s">
+        <v>2299</v>
+      </c>
+      <c r="G638" s="11" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H638" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I638" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J638" s="1">
+        <v>1972</v>
+      </c>
+      <c r="L638" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.068454, 26.810237</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>639</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D639" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E639" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F639" s="11" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G639" s="11" t="s">
+        <v>2304</v>
+      </c>
+      <c r="H639" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I639" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J639" s="1">
+        <v>1972</v>
+      </c>
+      <c r="L639" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.057900, 26.808971</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>640</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D640" s="9" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E640" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F640" s="11" t="s">
+        <v>2306</v>
+      </c>
+      <c r="G640" s="11" t="s">
+        <v>2307</v>
+      </c>
+      <c r="H640" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I640" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J640" s="1">
+        <v>1972</v>
+      </c>
+      <c r="L640" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.015808, 26.822777</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>641</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D641" s="9" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E641" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F641" s="11" t="s">
+        <v>2311</v>
+      </c>
+      <c r="G641" s="11" t="s">
+        <v>2312</v>
+      </c>
+      <c r="H641" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J641" s="1">
+        <v>1972</v>
+      </c>
+      <c r="K641" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="L641" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>58.985458, 26.846536</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>642</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D642" s="9" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E642" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F642" s="11" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G642" s="11" t="s">
+        <v>2316</v>
+      </c>
+      <c r="H642" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I642" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J642" s="1">
+        <v>1968</v>
+      </c>
+      <c r="L642" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>58.944012, 26.876756</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>643</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D643" s="9" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E643" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F643" s="11" t="s">
+        <v>2318</v>
+      </c>
+      <c r="G643" s="11" t="s">
+        <v>2319</v>
+      </c>
+      <c r="H643" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J643" s="1">
+        <v>1968</v>
+      </c>
+      <c r="L643" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>58.917571, 26.896459</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>644</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D644" s="9" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E644" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F644" s="11" t="s">
+        <v>2321</v>
+      </c>
+      <c r="G644" s="11" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H644" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I644" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J644" s="1">
+        <v>1968</v>
+      </c>
+      <c r="L644" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>58.849788, 26.942369</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>645</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D645" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E645" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F645" s="11" t="s">
+        <v>2325</v>
+      </c>
+      <c r="G645" s="7" t="s">
+        <v>2326</v>
+      </c>
+      <c r="H645" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I645" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J645" s="1">
+        <v>1990</v>
+      </c>
+      <c r="L645" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>59.361503, 27.466066</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>646</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D646" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E646" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F646" s="11" t="s">
+        <v>2328</v>
+      </c>
+      <c r="G646" s="11" t="s">
+        <v>2329</v>
+      </c>
+      <c r="H646" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I646" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J646" s="1">
+        <v>1990</v>
+      </c>
+      <c r="K646" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="L646" s="1" t="str">
+        <f t="shared" ref="L646:L655" si="4">F646&amp;", "&amp;G646</f>
+        <v>59.357422, 27.337772</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>647</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D647" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E647" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F647" s="11" t="s">
+        <v>2332</v>
+      </c>
+      <c r="G647" s="11" t="s">
+        <v>2333</v>
+      </c>
+      <c r="H647" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I647" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J647" s="1">
+        <v>2014</v>
+      </c>
+      <c r="K647" s="10" t="s">
+        <v>2334</v>
+      </c>
+      <c r="L647" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>59.360924, 27.217319</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>648</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D648" s="10" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E648" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F648" s="11" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G648" s="11" t="s">
+        <v>2339</v>
+      </c>
+      <c r="H648" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I648" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J648" s="1">
+        <v>1950</v>
+      </c>
+      <c r="L648" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>59.354981, 27.002294</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>649</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D649" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E649" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F649" s="11" t="s">
+        <v>2341</v>
+      </c>
+      <c r="G649" s="11" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H649" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="I649" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J649" s="1">
+        <v>2001</v>
+      </c>
+      <c r="L649" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>59.345766, 26.525583</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>650</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D650" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E650" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F650" s="11" t="s">
+        <v>2344</v>
+      </c>
+      <c r="G650" s="7" t="s">
+        <v>2345</v>
+      </c>
+      <c r="H650" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I650" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J650" s="1">
+        <v>1980</v>
+      </c>
+      <c r="L650" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>59.317915, 26.075100</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>651</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D651" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E651" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F651" s="11" t="s">
+        <v>2347</v>
+      </c>
+      <c r="G651" s="11" t="s">
+        <v>2348</v>
+      </c>
+      <c r="H651" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I651" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J651" s="1">
+        <v>2005</v>
+      </c>
+      <c r="L651" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>59.253611, 25.772972</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>652</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C652" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D652" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E652" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F652" s="11" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G652" s="11" t="s">
+        <v>2355</v>
+      </c>
+      <c r="H652" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I652" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J652" s="1">
+        <v>2024</v>
+      </c>
+      <c r="L652" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>59.357533, 26.364805</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>653</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D653" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E653" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F653" s="11" t="s">
+        <v>2356</v>
+      </c>
+      <c r="G653" s="11" t="s">
+        <v>2357</v>
+      </c>
+      <c r="H653" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I653" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J653" s="1">
+        <v>1939</v>
+      </c>
+      <c r="L653" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>59.417603, 26.437638</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>654</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D654" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E654" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F654" s="11" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G654" s="11" t="s">
+        <v>2359</v>
+      </c>
+      <c r="H654" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I654" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J654" s="1">
+        <v>1939</v>
+      </c>
+      <c r="L654" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>59.469279, 26.491096</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>655</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D655" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E655" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F655" s="11" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G655" s="11" t="s">
+        <v>2361</v>
+      </c>
+      <c r="H655" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="I655" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J655" s="1">
+        <v>1939</v>
+      </c>
+      <c r="K655" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="L655" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>59.493330, 26.524599</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="1"/>
+      <c r="E656" s="9"/>
+      <c r="J656" s="1"/>
+    </row>
+    <row r="657" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="1"/>
+      <c r="E657" s="9"/>
+    </row>
+    <row r="658" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="1"/>
+      <c r="E658" s="9"/>
+    </row>
+    <row r="659" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E659" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H999" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
